--- a/JESSE.xlsx
+++ b/JESSE.xlsx
@@ -920,48 +920,12 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="77">
-          <cell r="J77">
-            <v>-77214</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="78">
-          <cell r="J78">
-            <v>-68439</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="40">
-          <cell r="E40">
-            <v>179500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="40">
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="40">
-          <cell r="E40">
-            <v>174000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="40">
-          <cell r="E40">
-            <v>180000</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18">
         <row r="39">
           <cell r="J39">
@@ -979,41 +943,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19">
-        <row r="40">
-          <cell r="E40">
-            <v>156000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="20">
-        <row r="40">
-          <cell r="E40">
-            <v>150000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="40">
-          <cell r="E40">
-            <v>154000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22">
-        <row r="40">
-          <cell r="E40">
-            <v>160000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="40">
-          <cell r="I40">
-            <v>188649</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
     </sheetDataSet>
   </externalBook>
@@ -11836,8 +11770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12782,10 +12716,12 @@
         <f t="shared" si="0"/>
         <v>15950</v>
       </c>
-      <c r="J36" s="16"/>
+      <c r="J36" s="16">
+        <v>15950</v>
+      </c>
       <c r="K36" s="16">
         <f t="shared" si="1"/>
-        <v>15950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13308,18 +13244,22 @@
       <c r="F55" s="25">
         <v>15000</v>
       </c>
-      <c r="G55" s="25"/>
+      <c r="G55" s="25">
+        <v>450</v>
+      </c>
       <c r="H55" s="19">
         <v>200</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="0"/>
-        <v>15200</v>
-      </c>
-      <c r="J55" s="16"/>
+        <v>15650</v>
+      </c>
+      <c r="J55" s="16">
+        <v>1500</v>
+      </c>
       <c r="K55" s="16">
         <f t="shared" ref="K55:K61" si="2">I55-J55</f>
-        <v>15200</v>
+        <v>14150</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13495,7 +13435,7 @@
       </c>
       <c r="G62" s="35">
         <f t="shared" si="3"/>
-        <v>23250</v>
+        <v>23700</v>
       </c>
       <c r="H62" s="36">
         <f t="shared" si="3"/>
@@ -13503,15 +13443,15 @@
       </c>
       <c r="I62" s="16">
         <f t="shared" si="3"/>
-        <v>398600</v>
+        <v>399050</v>
       </c>
       <c r="J62" s="37">
         <f t="shared" si="3"/>
-        <v>96050</v>
+        <v>113500</v>
       </c>
       <c r="K62" s="37">
         <f t="shared" si="3"/>
-        <v>302550</v>
+        <v>285550</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13619,7 +13559,7 @@
       <c r="H68" s="45"/>
       <c r="I68" s="47">
         <f>J62</f>
-        <v>96050</v>
+        <v>113500</v>
       </c>
       <c r="J68" s="45"/>
       <c r="K68" s="45"/>
@@ -13671,7 +13611,7 @@
       </c>
       <c r="B71" s="46">
         <f>G62</f>
-        <v>23250</v>
+        <v>23700</v>
       </c>
       <c r="C71" s="46"/>
       <c r="D71" s="45"/>
@@ -13861,7 +13801,7 @@
       </c>
       <c r="B82" s="53">
         <f>B68+B69+B70+++B71++B72+B73+B74</f>
-        <v>368250</v>
+        <v>368700</v>
       </c>
       <c r="C82" s="53"/>
       <c r="D82" s="53">
@@ -13870,14 +13810,14 @@
       </c>
       <c r="E82" s="53">
         <f>B82-D82</f>
-        <v>338570</v>
+        <v>339020</v>
       </c>
       <c r="F82" s="53"/>
       <c r="G82" s="44"/>
       <c r="H82" s="44"/>
       <c r="I82" s="53">
         <f>I68+I69+I73</f>
-        <v>77800</v>
+        <v>95250</v>
       </c>
       <c r="J82" s="53">
         <f>SUM(J76:J81)</f>
@@ -13885,7 +13825,7 @@
       </c>
       <c r="K82" s="53">
         <f>I82-J82</f>
-        <v>43720</v>
+        <v>61170</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">

--- a/JESSE.xlsx
+++ b/JESSE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JULY 21" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="155">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -483,6 +483,15 @@
   </si>
   <si>
     <t>JOEL SERUKUNDO</t>
+  </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
+  <si>
+    <t>MUSA</t>
+  </si>
+  <si>
+    <t>EDWIN MITITI GEKONGE</t>
   </si>
 </sst>
 </file>
@@ -706,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -856,6 +865,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5232,8 +5242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7359,6 +7369,10 @@
       </c>
       <c r="J85" s="43"/>
       <c r="K85" s="43"/>
+      <c r="L85" s="65">
+        <f>K62+K82</f>
+        <v>25280</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
@@ -7388,8 +7402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7423,10 +7437,10 @@
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4"/>
@@ -7435,10 +7449,10 @@
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
-      <c r="E3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="77"/>
+      <c r="E3" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="78"/>
       <c r="H3" s="2"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
@@ -8994,10 +9008,7 @@
         <f>12000</f>
         <v>12000</v>
       </c>
-      <c r="K58" s="16">
-        <f t="shared" si="2"/>
-        <v>14000</v>
-      </c>
+      <c r="K58" s="16"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
@@ -9079,36 +9090,36 @@
         <v>4000</v>
       </c>
       <c r="D62" s="14">
-        <f t="shared" ref="D62:K62" si="3">SUM(D6:D61)</f>
+        <f t="shared" ref="D62" si="3">SUM(D6:D61)</f>
         <v>25000</v>
       </c>
       <c r="E62" s="15">
-        <f>'SEPT 21'!K62:K118</f>
+        <f t="shared" ref="E62:K62" si="4">SUM(E6:E61)</f>
         <v>9600</v>
       </c>
       <c r="F62" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>307500</v>
       </c>
       <c r="G62" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17850</v>
       </c>
       <c r="H62" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
       <c r="I62" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>367550</v>
       </c>
       <c r="J62" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>341850</v>
       </c>
       <c r="K62" s="37">
-        <f t="shared" si="3"/>
-        <v>25700</v>
+        <f t="shared" si="4"/>
+        <v>11700</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9120,10 +9131,7 @@
       <c r="F63" s="32"/>
       <c r="G63" s="1"/>
       <c r="H63" s="32"/>
-      <c r="I63" s="16">
-        <f>C63+D63+E63+F63+G63+H63</f>
-        <v>0</v>
-      </c>
+      <c r="I63" s="16"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
     </row>
@@ -9410,7 +9418,7 @@
       <c r="H78" s="49"/>
       <c r="I78" s="49"/>
       <c r="J78" s="47">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="K78" s="45"/>
       <c r="M78" s="65">
@@ -9429,15 +9437,15 @@
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="45"/>
-      <c r="G79" s="50" t="s">
-        <v>137</v>
-      </c>
+      <c r="G79" s="50"/>
       <c r="H79" s="49"/>
       <c r="I79" s="49"/>
-      <c r="J79" s="47">
-        <v>110000</v>
-      </c>
+      <c r="J79" s="47"/>
       <c r="K79" s="45"/>
+      <c r="L79" s="65">
+        <f>K62+K82</f>
+        <v>2730</v>
+      </c>
     </row>
     <row r="80" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
@@ -9450,13 +9458,13 @@
       </c>
       <c r="E80" s="59"/>
       <c r="F80" s="59"/>
-      <c r="G80" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="59">
-        <v>234450</v>
+      <c r="G80" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="47">
+        <v>110000</v>
       </c>
       <c r="K80" s="59"/>
     </row>
@@ -9471,10 +9479,14 @@
       </c>
       <c r="E81" s="45"/>
       <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="47"/>
+      <c r="G81" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="59">
+        <v>234450</v>
+      </c>
       <c r="K81" s="47"/>
     </row>
     <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -9503,26 +9515,29 @@
       </c>
       <c r="J82" s="53">
         <f>SUM(J76:J81)</f>
-        <v>366300</v>
+        <v>366500</v>
       </c>
       <c r="K82" s="53">
         <f>I82-J82</f>
-        <v>-8770</v>
+        <v>-8970</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
+      <c r="D83" s="77">
+        <f>D82-D81-D76</f>
+        <v>351950</v>
+      </c>
       <c r="E83" s="43"/>
       <c r="F83" s="43"/>
       <c r="G83" s="43"/>
       <c r="H83" s="43"/>
       <c r="I83" s="43"/>
       <c r="J83" s="54">
-        <f>J82-J76</f>
-        <v>347850</v>
+        <f>J82-J76-J78</f>
+        <v>344450</v>
       </c>
       <c r="K83" s="43"/>
     </row>
@@ -9542,7 +9557,10 @@
       <c r="I84" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="J84" s="43"/>
+      <c r="J84" s="77">
+        <f>J82-J76</f>
+        <v>348050</v>
+      </c>
       <c r="K84" s="43"/>
     </row>
     <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -9590,8 +9608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9625,10 +9643,10 @@
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4"/>
@@ -9637,10 +9655,10 @@
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
-      <c r="E3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="77"/>
+      <c r="E3" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="78"/>
       <c r="H3" s="2"/>
       <c r="I3" s="74"/>
       <c r="J3" s="4"/>
@@ -11426,7 +11444,7 @@
       <c r="H69" s="45"/>
       <c r="I69" s="46">
         <f>'OCTOBER 21'!K82</f>
-        <v>-8770</v>
+        <v>-8970</v>
       </c>
       <c r="J69" s="45"/>
       <c r="K69" s="45"/>
@@ -11642,7 +11660,7 @@
       <c r="J80" s="59"/>
       <c r="K80" s="59"/>
     </row>
-    <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="52"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -11655,7 +11673,7 @@
       <c r="J81" s="47"/>
       <c r="K81" s="47"/>
     </row>
-    <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="44" t="s">
         <v>51</v>
       </c>
@@ -11677,7 +11695,7 @@
       <c r="H82" s="44"/>
       <c r="I82" s="53">
         <f>I68+I69+I73</f>
-        <v>347930</v>
+        <v>347730</v>
       </c>
       <c r="J82" s="53">
         <f>SUM(J76:J81)</f>
@@ -11685,10 +11703,14 @@
       </c>
       <c r="K82" s="53">
         <f>I82-J82</f>
-        <v>-18250</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+        <v>-18450</v>
+      </c>
+      <c r="L82" s="66">
+        <f>K62+K82</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
@@ -11704,7 +11726,7 @@
       </c>
       <c r="K83" s="43"/>
     </row>
-    <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
         <v>52</v>
       </c>
@@ -11723,7 +11745,7 @@
       <c r="J84" s="43"/>
       <c r="K84" s="43"/>
     </row>
-    <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="43" t="s">
         <v>55</v>
       </c>
@@ -11742,19 +11764,19 @@
       <c r="J85" s="43"/>
       <c r="K85" s="43"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C86" s="66"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E87" s="66"/>
       <c r="J87" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E88" s="66"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G90" s="66"/>
     </row>
   </sheetData>
@@ -11768,10 +11790,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11805,10 +11827,10 @@
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4"/>
@@ -11817,10 +11839,10 @@
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
-      <c r="E3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="77"/>
+      <c r="E3" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="78"/>
       <c r="H3" s="2"/>
       <c r="I3" s="76"/>
       <c r="J3" s="4"/>
@@ -11890,22 +11912,20 @@
         <v>0</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="17">
-        <v>1650</v>
-      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16">
         <f>C6+D6+E6+F6+G6+H6</f>
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16">
         <f>I6-J6</f>
-        <v>1650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -11930,10 +11950,12 @@
         <f t="shared" ref="I7:I61" si="0">C7+D7+E7+F7+G7+H7</f>
         <v>12500</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="16">
+        <v>12500</v>
+      </c>
       <c r="K7" s="16">
         <f>I7-J7</f>
-        <v>12500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11972,7 +11994,7 @@
       <c r="A9" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="61"/>
@@ -11985,19 +12007,22 @@
         <v>12000</v>
       </c>
       <c r="G9" s="25">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="H9" s="19">
         <v>200</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="0"/>
-        <v>13400</v>
-      </c>
-      <c r="J9" s="16"/>
+        <v>13100</v>
+      </c>
+      <c r="J9" s="16">
+        <f>5000+3500+1500</f>
+        <v>10000</v>
+      </c>
       <c r="K9" s="16">
         <f>I9-J9</f>
-        <v>13400</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12026,10 +12051,12 @@
         <f>C10+D10+E10+F10+G10+H10</f>
         <v>11250</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="16">
+        <v>11050</v>
+      </c>
       <c r="K10" s="16">
         <f>I10-J10</f>
-        <v>11250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12058,10 +12085,12 @@
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="16">
+        <v>13100</v>
+      </c>
       <c r="K11" s="16">
         <f t="shared" ref="K11:K52" si="1">I11-J11</f>
-        <v>14000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12090,10 +12119,12 @@
         <f t="shared" si="0"/>
         <v>10650</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="16">
+        <v>10450</v>
+      </c>
       <c r="K12" s="16">
         <f t="shared" si="1"/>
-        <v>10650</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12122,14 +12153,16 @@
         <f t="shared" si="0"/>
         <v>10950</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="16">
+        <v>10950</v>
+      </c>
       <c r="K13" s="16">
         <f t="shared" si="1"/>
-        <v>10950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="27" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -12145,19 +12178,21 @@
         <v>10000</v>
       </c>
       <c r="G14" s="20">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="H14" s="19">
         <v>200</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="0"/>
+        <v>10950</v>
+      </c>
+      <c r="J14" s="16">
         <v>11100</v>
       </c>
-      <c r="J14" s="16"/>
       <c r="K14" s="16">
         <f>I14-J14</f>
-        <v>11100</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12216,10 +12251,12 @@
         <f t="shared" si="0"/>
         <v>17900</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="16">
+        <v>13950</v>
+      </c>
       <c r="K16" s="16">
         <f>I16-J16</f>
-        <v>17900</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12568,10 +12605,12 @@
         <f t="shared" si="0"/>
         <v>15200</v>
       </c>
-      <c r="J31" s="16"/>
+      <c r="J31" s="16">
+        <v>15200</v>
+      </c>
       <c r="K31" s="16">
         <f t="shared" si="1"/>
-        <v>15200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12624,10 +12663,12 @@
         <f t="shared" si="0"/>
         <v>15350</v>
       </c>
-      <c r="J33" s="16"/>
+      <c r="J33" s="16">
+        <v>15350</v>
+      </c>
       <c r="K33" s="16">
         <f>I33-J33</f>
-        <v>15350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12673,21 +12714,21 @@
         <v>15000</v>
       </c>
       <c r="G35" s="20">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="H35" s="19">
         <v>200</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="0"/>
-        <v>16850</v>
+        <v>16550</v>
       </c>
       <c r="J35" s="16">
         <v>16000</v>
       </c>
       <c r="K35" s="16">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12773,7 +12814,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B39" s="31" t="s">
@@ -12824,10 +12865,12 @@
         <f t="shared" si="0"/>
         <v>15850</v>
       </c>
-      <c r="J40" s="16"/>
+      <c r="J40" s="16">
+        <v>15650</v>
+      </c>
       <c r="K40" s="16">
         <f t="shared" si="1"/>
-        <v>15850</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12847,17 +12890,17 @@
         <v>15000</v>
       </c>
       <c r="G41" s="20">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="H41" s="19">
         <v>200</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="0"/>
-        <v>16850</v>
+        <v>16700</v>
       </c>
       <c r="J41" s="16">
-        <v>16850</v>
+        <v>16700</v>
       </c>
       <c r="K41" s="16">
         <f t="shared" si="1"/>
@@ -12926,7 +12969,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>71</v>
@@ -12950,10 +12993,12 @@
         <f t="shared" si="0"/>
         <v>29550</v>
       </c>
-      <c r="J44" s="16"/>
+      <c r="J44" s="16">
+        <v>10000</v>
+      </c>
       <c r="K44" s="16">
         <f t="shared" si="1"/>
-        <v>29550</v>
+        <v>19550</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13112,10 +13157,12 @@
         <f t="shared" si="0"/>
         <v>18950</v>
       </c>
-      <c r="J50" s="16"/>
+      <c r="J50" s="16">
+        <v>18200</v>
+      </c>
       <c r="K50" s="16">
         <f t="shared" si="1"/>
-        <v>18950</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13192,10 +13239,12 @@
         <f t="shared" si="0"/>
         <v>19250</v>
       </c>
-      <c r="J53" s="16"/>
+      <c r="J53" s="16">
+        <v>18950</v>
+      </c>
       <c r="K53" s="16">
         <f>I53-J53</f>
-        <v>19250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13255,11 +13304,11 @@
         <v>15650</v>
       </c>
       <c r="J55" s="16">
-        <v>1500</v>
+        <v>15650</v>
       </c>
       <c r="K55" s="16">
         <f t="shared" ref="K55:K61" si="2">I55-J55</f>
-        <v>14150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13287,32 +13336,42 @@
         <v>13300</v>
       </c>
       <c r="J56" s="16">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="K56" s="16">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
+      <c r="A57" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="B57" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="14"/>
+      <c r="C57" s="64">
+        <v>2000</v>
+      </c>
+      <c r="D57" s="14">
+        <v>6000</v>
+      </c>
       <c r="E57" s="15">
         <f>'NOVEMBER 21'!K57</f>
         <v>0</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="25">
+        <v>6000</v>
+      </c>
       <c r="G57" s="25"/>
       <c r="H57" s="19"/>
       <c r="I57" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="16"/>
+        <f>C57+D57+E57+F57+G57+H57</f>
+        <v>14000</v>
+      </c>
+      <c r="J57" s="16">
+        <v>14000</v>
+      </c>
       <c r="K57" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -13419,11 +13478,11 @@
       <c r="B62" s="27"/>
       <c r="C62" s="14">
         <f>SUM(C6:C61)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D62" s="14">
         <f t="shared" ref="D62:K62" si="3">SUM(D6:D61)</f>
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="E62" s="15">
         <f>SUM(E6:E61)</f>
@@ -13431,11 +13490,11 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="3"/>
-        <v>328000</v>
+        <v>334000</v>
       </c>
       <c r="G62" s="35">
-        <f t="shared" si="3"/>
-        <v>23700</v>
+        <f>SUM(G6:G61)</f>
+        <v>21150</v>
       </c>
       <c r="H62" s="36">
         <f t="shared" si="3"/>
@@ -13443,15 +13502,15 @@
       </c>
       <c r="I62" s="16">
         <f t="shared" si="3"/>
-        <v>399050</v>
+        <v>410500</v>
       </c>
       <c r="J62" s="37">
         <f t="shared" si="3"/>
-        <v>113500</v>
+        <v>328250</v>
       </c>
       <c r="K62" s="37">
         <f t="shared" si="3"/>
-        <v>285550</v>
+        <v>82250</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13547,7 +13606,7 @@
       </c>
       <c r="B68" s="46">
         <f>F62</f>
-        <v>328000</v>
+        <v>334000</v>
       </c>
       <c r="C68" s="46"/>
       <c r="D68" s="45"/>
@@ -13559,7 +13618,7 @@
       <c r="H68" s="45"/>
       <c r="I68" s="47">
         <f>J62</f>
-        <v>113500</v>
+        <v>328250</v>
       </c>
       <c r="J68" s="45"/>
       <c r="K68" s="45"/>
@@ -13582,7 +13641,7 @@
       <c r="H69" s="45"/>
       <c r="I69" s="46">
         <f>'NOVEMBER 21'!K82</f>
-        <v>-18250</v>
+        <v>-18450</v>
       </c>
       <c r="J69" s="45"/>
       <c r="K69" s="45"/>
@@ -13593,7 +13652,7 @@
       </c>
       <c r="B70" s="46">
         <f>D62</f>
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="C70" s="46"/>
       <c r="D70" s="45"/>
@@ -13611,7 +13670,7 @@
       </c>
       <c r="B71" s="46">
         <f>G62</f>
-        <v>23700</v>
+        <v>21150</v>
       </c>
       <c r="C71" s="46"/>
       <c r="D71" s="45"/>
@@ -13659,7 +13718,7 @@
       </c>
       <c r="B74" s="47">
         <f>C62</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C74" s="47"/>
       <c r="D74" s="46"/>
@@ -13700,7 +13759,7 @@
       <c r="C76" s="49"/>
       <c r="D76" s="47">
         <f>B76*F62</f>
-        <v>19680</v>
+        <v>20040</v>
       </c>
       <c r="E76" s="45"/>
       <c r="F76" s="45"/>
@@ -13713,7 +13772,7 @@
       </c>
       <c r="J76" s="47">
         <f>I76*F62</f>
-        <v>19680</v>
+        <v>20040</v>
       </c>
       <c r="K76" s="45"/>
     </row>
@@ -13757,16 +13816,24 @@
       <c r="K78" s="45"/>
     </row>
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="45"/>
+      <c r="A79" s="45" t="s">
+        <v>152</v>
+      </c>
       <c r="B79" s="58"/>
       <c r="C79" s="58"/>
-      <c r="D79" s="47"/>
+      <c r="D79" s="47">
+        <v>336470</v>
+      </c>
       <c r="E79" s="45"/>
       <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="47"/>
+      <c r="G79" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="47">
+        <v>336470</v>
+      </c>
       <c r="K79" s="45"/>
     </row>
     <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -13801,31 +13868,31 @@
       </c>
       <c r="B82" s="53">
         <f>B68+B69+B70+++B71++B72+B73+B74</f>
-        <v>368700</v>
+        <v>380150</v>
       </c>
       <c r="C82" s="53"/>
       <c r="D82" s="53">
         <f>SUM(D76:D81)</f>
-        <v>29680</v>
+        <v>366510</v>
       </c>
       <c r="E82" s="53">
         <f>B82-D82</f>
-        <v>339020</v>
+        <v>13640</v>
       </c>
       <c r="F82" s="53"/>
       <c r="G82" s="44"/>
       <c r="H82" s="44"/>
       <c r="I82" s="53">
         <f>I68+I69+I73</f>
-        <v>95250</v>
+        <v>309800</v>
       </c>
       <c r="J82" s="53">
         <f>SUM(J76:J81)</f>
-        <v>34080</v>
+        <v>370910</v>
       </c>
       <c r="K82" s="53">
         <f>I82-J82</f>
-        <v>61170</v>
+        <v>-61110</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -13840,7 +13907,7 @@
       <c r="I83" s="43"/>
       <c r="J83" s="54">
         <f>J82-J76</f>
-        <v>14400</v>
+        <v>350870</v>
       </c>
       <c r="K83" s="43"/>
     </row>
@@ -13882,11 +13949,18 @@
       <c r="J85" s="43"/>
       <c r="K85" s="43"/>
     </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E86" s="65">
+        <f>E82+214195</f>
+        <v>227835</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>